--- a/src/main/resources/165-mall4cloud/mall4cloud-common-database_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-common-database_structure.xlsx
@@ -160,7 +160,7 @@
     <t>com.mall4j.cloud.common.database.util.PageUtil</t>
   </si>
   <si>
-    <t>doPage(com.github.pagehelper.ISelect)</t>
+    <t>doPage(com.mall4j.cloud.common.database.dto.PageDTO,com.github.pagehelper.ISelect)</t>
   </si>
   <si>
     <t>getPages(java.lang.Long,java.lang.Integer)</t>
